--- a/StructureDefinition-LaboratoryTestsAndImaging.xlsx
+++ b/StructureDefinition-LaboratoryTestsAndImaging.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T10:57:51+00:00</t>
+    <t>2026-01-15T12:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-LaboratoryTestsAndImaging.xlsx
+++ b/StructureDefinition-LaboratoryTestsAndImaging.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T12:19:16+00:00</t>
+    <t>2026-01-15T13:05:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-LaboratoryTestsAndImaging.xlsx
+++ b/StructureDefinition-LaboratoryTestsAndImaging.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Laboratory Tests and Imaging </t>
+    <t>Laboratory Tests and Imaging</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T13:05:29+00:00</t>
+    <t>2026-01-15T13:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -365,7 +365,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.otherTestSDate</t>
+    <t>LaboratoryTestsAndImaging.otherTestsDate</t>
   </si>
   <si>
     <t>ANC - ANC.B9.  Other test(s) date</t>
@@ -375,7 +375,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.otherTestSName</t>
+    <t>LaboratoryTestsAndImaging.otherTestsName</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -389,7 +389,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.otherTestSResultS</t>
+    <t>LaboratoryTestsAndImaging.otherTestsResults</t>
   </si>
   <si>
     <t>ANC - ANC.B9.   Other test(s) result(s)</t>
@@ -690,7 +690,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.ancLabSickleCell</t>
+    <t>LaboratoryTestsAndImaging.labSickleCell</t>
   </si>
   <si>
     <t>ANC - ANC LAB Sickle cell</t>
@@ -703,7 +703,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.ancB6UltrasoundGa</t>
+    <t>LaboratoryTestsAndImaging.ultrasoundGa</t>
   </si>
   <si>
     <t xml:space="preserve">positiveInt
@@ -770,7 +770,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.ancB9DeUrineDipstickTestDate</t>
+    <t>LaboratoryTestsAndImaging.urineDipstickTestDate</t>
   </si>
   <si>
     <t>ANC - ANC B9.DE Urine dipstick test date</t>
@@ -856,7 +856,7 @@
 </t>
   </si>
   <si>
-    <t>LaboratoryTestsAndImaging.ancGestationalAgeAtVisitLab</t>
+    <t>LaboratoryTestsAndImaging.gestationalAgeAtVisitLab</t>
   </si>
   <si>
     <t>ANC - ANC.B8. Gestational age at todays visit_LAB</t>
